--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Instructor Files/Section 4/04-04-using-index-match.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Instructor Files/Section 4/04-04-using-index-match.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Intermediate Course Files\Instructor Files\Section 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524E41C3-B5B6-488D-A13A-29CF03363782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED02C663-7A2F-49FD-976C-56583D61F66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F834B0FE-07F0-4502-B9D6-DCEA0411B2B2}"/>
   </bookViews>
@@ -16,14 +16,18 @@
     <sheet name="INDEX and MATCH" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="App">'INDEX and MATCH'!$B$6:$B$16</definedName>
+    <definedName name="Category">'INDEX and MATCH'!$A$6:$A$16</definedName>
     <definedName name="Deb" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="ee" localSheetId="0" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="ee" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="Fruits">#REF!</definedName>
     <definedName name="k" localSheetId="0" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="k" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
+    <definedName name="Profit">'INDEX and MATCH'!$D$6:$D$16</definedName>
     <definedName name="q" localSheetId="0" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="q" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
+    <definedName name="Revenue">'INDEX and MATCH'!$C$6:$C$16</definedName>
     <definedName name="rr" localSheetId="0" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="rr" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="rrr" localSheetId="0" hidden="1">{"AllDetail",#N/A,FALSE,"Research Budget";"1stQuarter",#N/A,FALSE,"Research Budget";"2nd Quarter",#N/A,FALSE,"Research Budget";"Summary",#N/A,FALSE,"Research Budget"}</definedName>
@@ -61,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>INDEX &amp; MATCH - Perfect for Complex Lookups</t>
   </si>
@@ -184,6 +188,12 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>use name range</t>
+  </si>
+  <si>
+    <t>formual -&gt; create from selection</t>
   </si>
 </sst>
 </file>
@@ -193,7 +203,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,8 +250,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +293,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD2DEEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -353,6 +389,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -674,7 +713,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,7 +764,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="K5" t="s">
         <v>40</v>
@@ -750,9 +789,9 @@
       <c r="G6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="12" t="str">
+      <c r="H6" s="21" t="str">
         <f>INDEX($A$6:$A$16,MATCH($H$5,$B$6:$B$16,0))</f>
-        <v>Social Media</v>
+        <v>Productivity</v>
       </c>
       <c r="K6" t="str">
         <f>INDEX($A$6:$A$16,7)</f>
@@ -760,7 +799,7 @@
       </c>
       <c r="L6" s="12">
         <f>MATCH($H$5,$B$6:$B$16,0)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -779,9 +818,9 @@
       <c r="G7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="22">
         <f>INDEX(D6:D16,MATCH(H5,B6:B16,0))</f>
-        <v>786.8</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -815,7 +854,13 @@
       <c r="G9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="23">
+        <f>INDEX(Revenue,MATCH(H5,App,0))</f>
+        <v>17990</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -829,6 +874,9 @@
       </c>
       <c r="D10" s="10">
         <v>240</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1225,5 +1273,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>